--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BOFMCATransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BOFMCATransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>BOFMCA</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4289.149221550086</v>
       </c>
       <c r="C2" t="n">
-        <v>593.7238644979408</v>
+        <v>3891.7767035468755</v>
       </c>
       <c r="D2" t="n">
-        <v>555.5532000049067</v>
-      </c>
-      <c r="E2" t="n">
-        <v>631.8945289909749</v>
+        <v>4686.521739553296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4327.045940723533</v>
       </c>
       <c r="C3" t="n">
-        <v>624.5913133424684</v>
+        <v>3692.890829095701</v>
       </c>
       <c r="D3" t="n">
-        <v>568.1280982677712</v>
-      </c>
-      <c r="E3" t="n">
-        <v>681.0545284171657</v>
+        <v>4961.201052351365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4366.028150947333</v>
       </c>
       <c r="C4" t="n">
-        <v>621.7638315032507</v>
+        <v>3596.349643351757</v>
       </c>
       <c r="D4" t="n">
-        <v>552.2741146721646</v>
-      </c>
-      <c r="E4" t="n">
-        <v>691.2535483343368</v>
+        <v>5135.70665854291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4382.226822369932</v>
       </c>
       <c r="C5" t="n">
-        <v>623.8242004895698</v>
+        <v>3479.892758813688</v>
       </c>
       <c r="D5" t="n">
-        <v>543.9249172994182</v>
-      </c>
-      <c r="E5" t="n">
-        <v>703.7234836797213</v>
+        <v>5284.5608859261765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4384.483123020308</v>
       </c>
       <c r="C6" t="n">
-        <v>588.9100312961444</v>
+        <v>3376.1125738628775</v>
       </c>
       <c r="D6" t="n">
-        <v>500.26585454630333</v>
-      </c>
-      <c r="E6" t="n">
-        <v>677.5542080459855</v>
+        <v>5392.853672177739</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4477.565837794294</v>
       </c>
       <c r="C7" t="n">
-        <v>619.9927073111731</v>
+        <v>3368.1444616596837</v>
       </c>
       <c r="D7" t="n">
-        <v>523.7911352390181</v>
-      </c>
-      <c r="E7" t="n">
-        <v>716.1942793833282</v>
+        <v>5586.987213928904</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4483.476323288265</v>
       </c>
       <c r="C8" t="n">
-        <v>617.3747595586882</v>
+        <v>3284.330354899927</v>
       </c>
       <c r="D8" t="n">
-        <v>514.5216152822412</v>
-      </c>
-      <c r="E8" t="n">
-        <v>720.2279038351352</v>
+        <v>5682.622291676604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4519.49413477898</v>
       </c>
       <c r="C9" t="n">
-        <v>619.6391201386377</v>
+        <v>3235.2863960452482</v>
       </c>
       <c r="D9" t="n">
-        <v>510.8564124799638</v>
-      </c>
-      <c r="E9" t="n">
-        <v>728.4218277973116</v>
+        <v>5803.701873512712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4509.873270986059</v>
       </c>
       <c r="C10" t="n">
-        <v>584.9235466530548</v>
+        <v>3146.8016690263225</v>
       </c>
       <c r="D10" t="n">
-        <v>470.8048571850054</v>
-      </c>
-      <c r="E10" t="n">
-        <v>699.0422361211042</v>
+        <v>5872.944872945795</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4610.073703013583</v>
       </c>
       <c r="C11" t="n">
-        <v>616.1995652194674</v>
+        <v>3171.9451883933707</v>
       </c>
       <c r="D11" t="n">
-        <v>497.24418471869495</v>
-      </c>
-      <c r="E11" t="n">
-        <v>735.1549457202399</v>
+        <v>6048.202217633796</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4611.718700802709</v>
       </c>
       <c r="C12" t="n">
-        <v>613.769845815832</v>
+        <v>3102.5538173735613</v>
       </c>
       <c r="D12" t="n">
-        <v>490.405180650415</v>
-      </c>
-      <c r="E12" t="n">
-        <v>737.134510981249</v>
+        <v>6120.883584231857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4650.292723043597</v>
       </c>
       <c r="C13" t="n">
-        <v>616.217455820478</v>
+        <v>3073.120110303658</v>
       </c>
       <c r="D13" t="n">
-        <v>488.81446686555205</v>
-      </c>
-      <c r="E13" t="n">
-        <v>743.6204447754039</v>
+        <v>6227.465335783537</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4639.1399796975165</v>
       </c>
       <c r="C14" t="n">
-        <v>581.6802845355038</v>
+        <v>2996.8699996822734</v>
       </c>
       <c r="D14" t="n">
-        <v>450.5645446352255</v>
-      </c>
-      <c r="E14" t="n">
-        <v>712.7960244357821</v>
+        <v>6281.409959712761</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4740.258432653178</v>
       </c>
       <c r="C15" t="n">
-        <v>613.1299862948365</v>
+        <v>3035.3190769287776</v>
       </c>
       <c r="D15" t="n">
-        <v>478.5898535356529</v>
-      </c>
-      <c r="E15" t="n">
-        <v>747.6701190540201</v>
+        <v>6445.197788377578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4741.353281167996</v>
       </c>
       <c r="C16" t="n">
-        <v>610.8693559013135</v>
+        <v>2976.000148302743</v>
       </c>
       <c r="D16" t="n">
-        <v>473.1621756488569</v>
-      </c>
-      <c r="E16" t="n">
-        <v>748.5765361537701</v>
+        <v>6506.7064140332495</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4780.256995483155</v>
       </c>
       <c r="C17" t="n">
-        <v>613.4815822563398</v>
+        <v>2956.4715091751873</v>
       </c>
       <c r="D17" t="n">
-        <v>472.8384989149963</v>
-      </c>
-      <c r="E17" t="n">
-        <v>754.1246655976834</v>
+        <v>6604.0424817911235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4768.906675099509</v>
       </c>
       <c r="C18" t="n">
-        <v>579.1046729706195</v>
+        <v>2888.514598733985</v>
       </c>
       <c r="D18" t="n">
-        <v>435.73443466628464</v>
-      </c>
-      <c r="E18" t="n">
-        <v>722.4749112749544</v>
+        <v>6649.298751465033</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4870.1435315256185</v>
       </c>
       <c r="C19" t="n">
-        <v>610.7103975572443</v>
+        <v>2934.7934947328936</v>
       </c>
       <c r="D19" t="n">
-        <v>464.802414356057</v>
-      </c>
-      <c r="E19" t="n">
-        <v>756.6183807584315</v>
+        <v>6805.493568318344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4871.167423506281</v>
       </c>
       <c r="C20" t="n">
-        <v>608.6016629515536</v>
+        <v>2882.381245816353</v>
       </c>
       <c r="D20" t="n">
-        <v>460.3285006016908</v>
-      </c>
-      <c r="E20" t="n">
-        <v>756.8748253014164</v>
+        <v>6859.95360119621</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4910.113660474875</v>
       </c>
       <c r="C21" t="n">
-        <v>611.3617672213803</v>
+        <v>2869.287854440088</v>
       </c>
       <c r="D21" t="n">
-        <v>460.88120646486743</v>
-      </c>
-      <c r="E21" t="n">
-        <v>761.8423279778932</v>
+        <v>6950.939466509663</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4898.737857222362</v>
       </c>
       <c r="C22" t="n">
-        <v>577.1288242562389</v>
+        <v>2807.168064382367</v>
       </c>
       <c r="D22" t="n">
-        <v>424.58558054837306</v>
-      </c>
-      <c r="E22" t="n">
-        <v>729.6720679641047</v>
+        <v>6990.307650062358</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4999.989984958074</v>
       </c>
       <c r="C23" t="n">
-        <v>608.8747070367973</v>
+        <v>2858.877752589639</v>
       </c>
       <c r="D23" t="n">
-        <v>454.4018810925783</v>
-      </c>
-      <c r="E23" t="n">
-        <v>763.3475329810163</v>
+        <v>7141.102217326509</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5001.004725186704</v>
       </c>
       <c r="C24" t="n">
-        <v>606.9024232290967</v>
+        <v>2811.4711931669867</v>
       </c>
       <c r="D24" t="n">
-        <v>450.6227355347894</v>
-      </c>
-      <c r="E24" t="n">
-        <v>763.182110923404</v>
+        <v>7190.538257206421</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5039.956446594252</v>
       </c>
       <c r="C25" t="n">
-        <v>609.7953689671929</v>
+        <v>2803.049269054319</v>
       </c>
       <c r="D25" t="n">
-        <v>451.8222189406956</v>
-      </c>
-      <c r="E25" t="n">
-        <v>767.7685189936901</v>
+        <v>7276.863624134186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5028.577356640948</v>
       </c>
       <c r="C26" t="n">
-        <v>575.6917536128236</v>
+        <v>2745.2793750512346</v>
       </c>
       <c r="D26" t="n">
-        <v>416.13013497263665</v>
-      </c>
-      <c r="E26" t="n">
-        <v>735.2533722530105</v>
+        <v>7311.875338230662</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5129.831454022448</v>
       </c>
       <c r="C27" t="n">
-        <v>607.5635430934951</v>
+        <v>2801.066538275338</v>
       </c>
       <c r="D27" t="n">
-        <v>446.51084021229906</v>
-      </c>
-      <c r="E27" t="n">
-        <v>768.6162459746912</v>
+        <v>7458.596369769558</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5130.8450138867</v>
       </c>
       <c r="C28" t="n">
-        <v>605.7138355635034</v>
+        <v>2757.4840745805927</v>
       </c>
       <c r="D28" t="n">
-        <v>443.26052046996324</v>
-      </c>
-      <c r="E28" t="n">
-        <v>768.1671506570435</v>
+        <v>7504.205953192808</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5169.797442660046</v>
       </c>
       <c r="C29" t="n">
-        <v>608.7261152516071</v>
+        <v>2752.6631041797264</v>
       </c>
       <c r="D29" t="n">
-        <v>444.95636104338223</v>
-      </c>
-      <c r="E29" t="n">
-        <v>772.495869459832</v>
+        <v>7586.931781140365</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5158.417928798345</v>
       </c>
       <c r="C30" t="n">
-        <v>574.7386772840097</v>
+        <v>2698.2889516048913</v>
       </c>
       <c r="D30" t="n">
-        <v>409.73090070496283</v>
-      </c>
-      <c r="E30" t="n">
-        <v>739.7464538630564</v>
+        <v>7618.5469059918</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5259.672280218604</v>
       </c>
       <c r="C31" t="n">
-        <v>606.7235710840829</v>
+        <v>2757.2872556366665</v>
       </c>
       <c r="D31" t="n">
-        <v>440.55091467160366</v>
-      </c>
-      <c r="E31" t="n">
-        <v>772.8962274965621</v>
+        <v>7762.057304800542</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5260.685687843148</v>
       </c>
       <c r="C32" t="n">
-        <v>604.9839760933966</v>
+        <v>2716.746418418712</v>
       </c>
       <c r="D32" t="n">
-        <v>437.71473845385094</v>
-      </c>
-      <c r="E32" t="n">
-        <v>772.2532137329422</v>
+        <v>7804.624957267584</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5299.638207850323</v>
       </c>
       <c r="C33" t="n">
-        <v>608.1034556778122</v>
+        <v>2714.8126391321803</v>
       </c>
       <c r="D33" t="n">
-        <v>439.80147698015196</v>
-      </c>
-      <c r="E33" t="n">
-        <v>776.4054343754725</v>
+        <v>7884.463776568466</v>
       </c>
     </row>
   </sheetData>
